--- a/public/Updated OQC QIT Automation.xlsx
+++ b/public/Updated OQC QIT Automation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobile_defect_detection\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobile_defect_tracking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6B194-3761-4313-9D4F-E5E7EF4E32E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECAA1F-49A6-4CC7-A545-0170550887DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C49EE25-093F-40DB-91AA-81DF75A5BC34}"/>
   </bookViews>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C585F94B-7E9F-430C-9638-E1FDB3F920A5}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C585F94B-7E9F-430C-9638-E1FDB3F920A5}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D141638E-CC22-4791-8278-72EB9B109B40}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D141638E-CC22-4791-8278-72EB9B109B40}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{26609B91-D847-4312-9810-2B779FD45F9D}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{26609B91-D847-4312-9810-2B779FD45F9D}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1C89EA0B-86E9-4CF4-BDCE-6B6D09FC2C0F}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1C89EA0B-86E9-4CF4-BDCE-6B6D09FC2C0F}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{42C60D75-4C2D-491B-9990-E4AE48E97D8A}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{42C60D75-4C2D-491B-9990-E4AE48E97D8A}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{CE18FFC8-4A47-49FC-9244-9C50CEEFC8B4}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{CE18FFC8-4A47-49FC-9244-9C50CEEFC8B4}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t>Spec</t>
   </si>
@@ -190,9 +190,6 @@
     <t>D47</t>
   </si>
   <si>
-    <t>QIT</t>
-  </si>
-  <si>
     <t>SLGF2WV5RT3</t>
   </si>
   <si>
@@ -256,12 +253,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>CAR Report</t>
-  </si>
-  <si>
     <t>0.08 mm2</t>
   </si>
   <si>
@@ -278,6 +269,33 @@
   </si>
   <si>
     <t>Defect Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containment Action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root cause </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct to action </t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>Result Final</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>HSG</t>
+  </si>
+  <si>
+    <t>CM QIT / NOVA QIT</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -438,11 +456,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -475,10 +530,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -836,15 +916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535D1490-AB9E-45FC-ACEB-F4857721FE06}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.90625" customWidth="1"/>
@@ -852,18 +933,18 @@
     <col min="18" max="18" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -875,40 +956,55 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>33</v>
+      <c r="U1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45748</v>
       </c>
@@ -919,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -931,38 +1027,45 @@
         <v>8884620325076240</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45748</v>
       </c>
@@ -973,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -984,33 +1087,46 @@
       <c r="G3">
         <v>8884620325076240</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>16</v>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45748</v>
       </c>
@@ -1021,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1033,32 +1149,39 @@
         <v>8884620325076240</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45748</v>
       </c>
@@ -1069,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1081,32 +1204,39 @@
         <v>8884620325076240</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
@@ -1117,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1129,32 +1259,39 @@
         <v>8884620325076240</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45748</v>
       </c>
@@ -1165,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1177,32 +1314,37 @@
         <v>8884620325076240</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45748</v>
       </c>
@@ -1213,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1225,32 +1367,37 @@
         <v>8884620325076240</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45748</v>
       </c>
@@ -1261,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1273,32 +1420,37 @@
         <v>8884620325076240</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45748</v>
       </c>
@@ -1309,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1321,32 +1473,37 @@
         <v>8884620325076240</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45748</v>
       </c>
@@ -1357,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1369,48 +1526,96 @@
         <v>8884620325076240</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>8884620325076240</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="H1:K1">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/public/Updated OQC QIT Automation.xlsx
+++ b/public/Updated OQC QIT Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobile_defect_tracking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECAA1F-49A6-4CC7-A545-0170550887DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64525E-02BA-4E49-B886-AC7542BF5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C49EE25-093F-40DB-91AA-81DF75A5BC34}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>Spec</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Manual USN Scan</t>
   </si>
   <si>
-    <t>SGYL4KG6MT4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dent </t>
   </si>
   <si>
@@ -295,7 +292,13 @@
     <t>HSG</t>
   </si>
   <si>
-    <t>CM QIT / NOVA QIT</t>
+    <t>CM QIT</t>
+  </si>
+  <si>
+    <t>NOVA QIT</t>
+  </si>
+  <si>
+    <t>Not Available</t>
   </si>
 </sst>
 </file>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535D1490-AB9E-45FC-ACEB-F4857721FE06}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -962,13 +965,13 @@
         <v>28</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>6</v>
@@ -977,31 +980,31 @@
         <v>0</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -1015,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1033,19 +1036,19 @@
         <v>11</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3" t="s">
@@ -1055,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
@@ -1076,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1094,19 +1097,19 @@
         <v>11</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="3" t="s">
@@ -1116,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -1137,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1155,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="3" t="s">
@@ -1192,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1210,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="3" t="s">
@@ -1247,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1265,7 +1268,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="3" t="s">
@@ -1302,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1317,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="21"/>
@@ -1334,9 +1337,7 @@
       <c r="P7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="14"/>
       <c r="T7" s="15"/>
